--- a/spc/results/t01/M_0.20_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.20_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,581 +885,6 @@
         <v>141.2410846080253</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>139.7385044219927</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>138.5382380886827</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>137.2220109363422</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>135.9862153272008</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>134.8827888411774</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>133.566767429507</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>132.2465923710739</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>131.0120133828682</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>129.72528261544</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>128.4808810551649</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>127.1428061578506</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>125.8838490090867</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>124.8388483887725</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>123.8384260265189</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>122.840667142107</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>121.8385149069098</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>120.7862631905989</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>119.8062175491973</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>118.6058128857693</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>117.2833536957171</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>116.2533149923385</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>115.1301457855</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>113.9275526308217</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112.9336140096364</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>111.7935448257131</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>110.741917058975</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>109.7403116677255</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>108.9679120046953</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>108.0637329410924</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>107.1743842491847</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>106.1491118407775</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>105.1708236183099</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>104.311786665604</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>103.4114182976264</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>102.5536347614007</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>101.6365403432177</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>100.8352207464502</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>99.85154973191193</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>98.98408861196131</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>97.98023601548542</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>97.1146493809852</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>96.25947456712088</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>95.28721216358834</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>94.37710842387958</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>93.60501043653605</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>92.66110456633348</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>91.91878067492058</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>91.06826899686381</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>90.38596829120533</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>89.59144753805825</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>88.9197926281647</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>88.22842638467885</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>87.32458391282184</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>86.56533893078516</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>85.83686728742465</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>85.13345663728082</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>84.45793489475895</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>83.83710397052725</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>83.1899334163511</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>82.48407536231734</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>81.84845668723077</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>81.16653322192603</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>80.47985815991181</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>79.76613429968309</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>79.06259692227067</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>78.30120677705732</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>77.62770376056081</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>76.9240881966537</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>76.33585042142843</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>75.76531452898436</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>75.16202375055168</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>74.43103031117423</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>73.84535672505314</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>73.20845525418456</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>72.50337008705405</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>71.89895993791804</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>71.24514573794464</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>70.66380114845595</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>70.15006563985027</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>69.62650444235393</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>69.11243346812864</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>68.61379085034021</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>68.14926683244177</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>67.60700229369964</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>67.10467952113186</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>66.64261171543903</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>66.1720320788112</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>65.64114485367691</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>65.09736623554554</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>64.67794933493926</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>64.18148330313541</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>63.64178080237559</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>63.08628524166795</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>62.58924187466866</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>62.18413534185778</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>61.7210009243232</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>61.07118265219641</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>60.62886278170836</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>60.15150478616671</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>59.67705618851701</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>59.24649703605011</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>58.87242015008531</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>58.43813498814381</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>58.03939812282407</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>57.66672024754967</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>57.30078977550522</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>56.92901237927585</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>56.47401536633961</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>55.97256292565214</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>55.53032776959385</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>55.16968313661708</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>54.77657203158568</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>54.40245798620228</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>53.98628132973263</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>53.58932947457691</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
